--- a/properties_sample_small.xlsx
+++ b/properties_sample_small.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendan/Downloads/ProPublicaDataSearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D990E2-3A79-AD42-895D-3DA0EA8829E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8963C700-A4AA-7044-ADE8-D64571AFF4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1480" windowWidth="27240" windowHeight="15420" xr2:uid="{FA15F343-7803-7448-8DCF-C96BF217BACB}"/>
+    <workbookView xWindow="1560" yWindow="1460" windowWidth="27240" windowHeight="15420" xr2:uid="{FA15F343-7803-7448-8DCF-C96BF217BACB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>#</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Altered Name</t>
   </si>
   <si>
-    <t>Property Name</t>
-  </si>
-  <si>
     <t>Project Category</t>
   </si>
   <si>
@@ -143,127 +140,40 @@
     <t>https://projects.propublica.org/nonprofits/organizations/222804848</t>
   </si>
   <si>
-    <t>Ken-Ton Presbyterian Village</t>
-  </si>
-  <si>
-    <t>Ken-Ton Presbyterian</t>
-  </si>
-  <si>
-    <t>3735 Delaware Ave</t>
-  </si>
-  <si>
-    <t>BUFFALO</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>https://projects.propublica.org/nonprofits/organizations/161127014</t>
-  </si>
-  <si>
-    <t>SOUTH BAY RETIREMENT RESIDENCE</t>
-  </si>
-  <si>
-    <t>South Bay Retirement Residence</t>
-  </si>
-  <si>
-    <t>1001 W CRESSEY ST</t>
-  </si>
-  <si>
-    <t>COMPTON</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>https://projects.propublica.org/nonprofits/organizations/954321266</t>
-  </si>
-  <si>
-    <t>Telacu Housing-National City, Inc.</t>
-  </si>
-  <si>
-    <t>TELACU Southbay Manor</t>
-  </si>
-  <si>
-    <t>650 E 14TH ST</t>
-  </si>
-  <si>
-    <t>NATIONAL CITY</t>
-  </si>
-  <si>
-    <t>https://projects.propublica.org/nonprofits/organizations/954397222</t>
-  </si>
-  <si>
-    <t>Alaska Housing Finance Corporation</t>
-  </si>
-  <si>
-    <t>Alaska Housing</t>
-  </si>
-  <si>
-    <t>CHUGACH VIEW</t>
-  </si>
-  <si>
-    <t>Subsidized, No HUD Financing</t>
-  </si>
-  <si>
-    <t>1280 E. 17th Avenue</t>
-  </si>
-  <si>
-    <t>ANCHORAGE</t>
-  </si>
-  <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>https://projects.propublica.org/nonprofits/organizations/452634394</t>
-  </si>
-  <si>
-    <t>GOLDEN TOWERS APARTMENTS</t>
-  </si>
-  <si>
-    <t>330 Third Avenue</t>
-  </si>
-  <si>
-    <t>FAIRBANKS</t>
-  </si>
-  <si>
-    <t>https://projects.propublica.org/nonprofits/organizations/920070125</t>
-  </si>
-  <si>
-    <t>ALASKA HOUSING DEVELOPMENT CORP.</t>
-  </si>
-  <si>
-    <t>ALASKA HOUSING DEVELOPMENT</t>
-  </si>
-  <si>
-    <t>GRUENING PARK</t>
-  </si>
-  <si>
     <t>Insured-Subsidized</t>
   </si>
   <si>
-    <t>1800 Northwood Dr # A</t>
-  </si>
-  <si>
-    <t>Juneau</t>
-  </si>
-  <si>
-    <t>https://projects.propublica.org/nonprofits/organizations/237121924</t>
-  </si>
-  <si>
-    <t>NeighborWorks Anchorage</t>
-  </si>
-  <si>
-    <t>STEPHEN'S PARK APARTMENTS</t>
-  </si>
-  <si>
-    <t>Subsidized - Previously Insured</t>
-  </si>
-  <si>
-    <t>3200 LATOUCHE ST</t>
-  </si>
-  <si>
-    <t>https://projects.propublica.org/nonprofits/organizations/824439617</t>
+    <t>ALABAMA BAPTIST RETIREMENT CENTERS, INC.</t>
+  </si>
+  <si>
+    <t>HUTTO TOWER</t>
+  </si>
+  <si>
+    <t>4426 WEST MAIN ST</t>
+  </si>
+  <si>
+    <t>DOTHAN</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>https://projects.propublica.org/nonprofits/organizations/630975108</t>
+  </si>
+  <si>
+    <t>CATHOLIC HOUSING OF MOBILE, INC.</t>
+  </si>
+  <si>
+    <t>CATHEDRAL PLACE APTS.</t>
+  </si>
+  <si>
+    <t>351 Conti Street</t>
+  </si>
+  <si>
+    <t>MOBILE</t>
+  </si>
+  <si>
+    <t>https://projects.propublica.org/nonprofits/organizations/237122037</t>
   </si>
 </sst>
 </file>
@@ -669,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF8DB00-F7C4-5B4B-A077-558BA862158D}">
-  <dimension ref="A1:L115"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -687,32 +597,30 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -720,35 +628,35 @@
         <v>1272</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="4">
         <v>96</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="K2" s="4">
         <v>22901</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -756,33 +664,33 @@
         <v>800000012</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4">
         <v>80</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -790,40 +698,40 @@
         <v>800000034</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="4">
         <v>84</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>800000040</v>
+        <v>800000155</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>35</v>
@@ -833,13 +741,13 @@
         <v>36</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="4">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>37</v>
@@ -857,7 +765,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>800000067</v>
+        <v>800000188</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>41</v>
@@ -867,13 +775,13 @@
         <v>42</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="4">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>43</v>
@@ -882,188 +790,82 @@
         <v>44</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="1">
-        <v>800000071</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="4">
-        <v>75</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="1">
-        <v>800000088</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="4">
-        <v>120</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="1">
-        <v>800000098</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="4">
-        <v>96</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="1">
-        <v>800000099</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="4">
-        <v>96</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="1">
-        <v>800000117</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="4">
-        <v>160</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
@@ -1096,7 +898,7 @@
     <row r="14" spans="1:12">
       <c r="A14" s="1"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1152,7 +954,7 @@
     <row r="18" spans="1:12">
       <c r="A18" s="1"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1194,7 +996,7 @@
     <row r="21" spans="1:12">
       <c r="A21" s="1"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1362,7 +1164,7 @@
     <row r="33" spans="1:12">
       <c r="A33" s="1"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1460,7 +1262,7 @@
     <row r="40" spans="1:12">
       <c r="A40" s="1"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -1572,7 +1374,7 @@
     <row r="48" spans="1:12">
       <c r="A48" s="1"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="2"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -1670,7 +1472,7 @@
     <row r="55" spans="1:12">
       <c r="A55" s="1"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
+      <c r="C55" s="2"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -1698,7 +1500,7 @@
     <row r="57" spans="1:12">
       <c r="A57" s="1"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="2"/>
+      <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -1768,7 +1570,7 @@
     <row r="62" spans="1:12">
       <c r="A62" s="1"/>
       <c r="B62" s="4"/>
-      <c r="C62" s="2"/>
+      <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -1790,13 +1592,13 @@
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="2"/>
+      <c r="K63" s="4"/>
       <c r="L63" s="5"/>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1"/>
       <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
+      <c r="C64" s="2"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -1866,7 +1668,7 @@
     <row r="69" spans="1:12">
       <c r="A69" s="1"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
+      <c r="C69" s="2"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -1888,13 +1690,13 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
+      <c r="K70" s="2"/>
       <c r="L70" s="5"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="2"/>
+      <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -1944,7 +1746,7 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="2"/>
+      <c r="K74" s="4"/>
       <c r="L74" s="5"/>
     </row>
     <row r="75" spans="1:12">
@@ -1978,7 +1780,7 @@
     <row r="77" spans="1:12">
       <c r="A77" s="1"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="2"/>
+      <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -1992,7 +1794,7 @@
     <row r="78" spans="1:12">
       <c r="A78" s="1"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
+      <c r="C78" s="2"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -2006,7 +1808,7 @@
     <row r="79" spans="1:12">
       <c r="A79" s="1"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="2"/>
+      <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -2034,7 +1836,7 @@
     <row r="81" spans="1:12">
       <c r="A81" s="1"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="2"/>
+      <c r="C81" s="6"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -2042,7 +1844,7 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
+      <c r="K81" s="2"/>
       <c r="L81" s="5"/>
     </row>
     <row r="82" spans="1:12">
@@ -2076,7 +1878,7 @@
     <row r="84" spans="1:12">
       <c r="A84" s="1"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
+      <c r="C84" s="2"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -2132,7 +1934,7 @@
     <row r="88" spans="1:12">
       <c r="A88" s="1"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="6"/>
+      <c r="C88" s="2"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -2188,7 +1990,7 @@
     <row r="92" spans="1:12">
       <c r="A92" s="1"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="2"/>
+      <c r="C92" s="7"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -2196,13 +1998,13 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="K92" s="2"/>
+      <c r="K92" s="4"/>
       <c r="L92" s="5"/>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="1"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
+      <c r="C93" s="2"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -2286,7 +2088,7 @@
     <row r="99" spans="1:12">
       <c r="A99" s="1"/>
       <c r="B99" s="4"/>
-      <c r="C99" s="7"/>
+      <c r="C99" s="2"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -2294,7 +2096,7 @@
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
+      <c r="K99" s="2"/>
       <c r="L99" s="5"/>
     </row>
     <row r="100" spans="1:12">
@@ -2308,7 +2110,7 @@
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="K100" s="2"/>
+      <c r="K100" s="4"/>
       <c r="L100" s="5"/>
     </row>
     <row r="101" spans="1:12">
@@ -2342,7 +2144,7 @@
     <row r="103" spans="1:12">
       <c r="A103" s="1"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="2"/>
+      <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -2364,7 +2166,7 @@
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
-      <c r="K104" s="2"/>
+      <c r="K104" s="4"/>
       <c r="L104" s="5"/>
     </row>
     <row r="105" spans="1:12">
@@ -2378,7 +2180,7 @@
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
-      <c r="K105" s="2"/>
+      <c r="K105" s="4"/>
       <c r="L105" s="5"/>
     </row>
     <row r="106" spans="1:12">
@@ -2406,7 +2208,7 @@
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
-      <c r="K107" s="4"/>
+      <c r="K107" s="2"/>
       <c r="L107" s="5"/>
     </row>
     <row r="108" spans="1:12">
@@ -2423,116 +2225,13 @@
       <c r="K108" s="2"/>
       <c r="L108" s="5"/>
     </row>
-    <row r="109" spans="1:12">
-      <c r="A109" s="1"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="5"/>
-    </row>
-    <row r="110" spans="1:12">
-      <c r="A110" s="1"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="5"/>
-    </row>
-    <row r="111" spans="1:12">
-      <c r="A111" s="1"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="5"/>
-    </row>
-    <row r="112" spans="1:12">
-      <c r="A112" s="1"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="5"/>
-    </row>
-    <row r="113" spans="1:12">
-      <c r="A113" s="1"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="5"/>
-    </row>
-    <row r="114" spans="1:12">
-      <c r="A114" s="1"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
-      <c r="K114" s="2"/>
-      <c r="L114" s="5"/>
-    </row>
-    <row r="115" spans="1:12">
-      <c r="A115" s="1"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="5"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1" xr:uid="{47816E2A-5447-8D45-8BEC-B43B942587E4}"/>
     <hyperlink ref="L3" r:id="rId2" xr:uid="{671384EF-AAC6-A74B-ACF0-5DE69EAB2AB1}"/>
     <hyperlink ref="L4" r:id="rId3" xr:uid="{2CDC525F-10E7-484A-8EFD-0D676F149C1B}"/>
-    <hyperlink ref="L5" r:id="rId4" xr:uid="{5908B670-90F0-FE4D-B598-87E0821EED33}"/>
-    <hyperlink ref="L6" r:id="rId5" xr:uid="{93F52BF5-5B71-6A47-A169-DA6CFAE36F8C}"/>
-    <hyperlink ref="L7" r:id="rId6" xr:uid="{5586FB1F-4404-4A43-8D9E-D99772E96D6B}"/>
-    <hyperlink ref="L8" r:id="rId7" xr:uid="{75653C60-02E1-1A49-B751-A64D75028F9C}"/>
-    <hyperlink ref="L9" r:id="rId8" xr:uid="{2B34A7CC-F96B-D743-B8D1-67CC3C2BCAF3}"/>
-    <hyperlink ref="L10" r:id="rId9" xr:uid="{F7624AD8-E8FD-D44F-B6F4-7F4434D8A913}"/>
-    <hyperlink ref="L11" r:id="rId10" xr:uid="{37621E04-0C1A-6945-9AA8-A036915B2832}"/>
+    <hyperlink ref="L5" r:id="rId4" xr:uid="{6559E837-0CB9-F441-9C12-3217E74B335B}"/>
+    <hyperlink ref="L6" r:id="rId5" xr:uid="{C76BD029-8F77-7843-A294-F36B78F05E51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/properties_sample_small.xlsx
+++ b/properties_sample_small.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendan/Downloads/ProPublicaDataSearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8963C700-A4AA-7044-ADE8-D64571AFF4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F5B38B-426A-5746-8580-88A5E1C685BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1460" windowWidth="27240" windowHeight="15420" xr2:uid="{FA15F343-7803-7448-8DCF-C96BF217BACB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>#</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Altered Name</t>
+  </si>
+  <si>
+    <t>Property Name</t>
   </si>
   <si>
     <t>Project Category</t>
@@ -597,30 +600,32 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -628,35 +633,35 @@
         <v>1272</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="4">
         <v>96</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" s="4">
         <v>22901</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -664,33 +669,33 @@
         <v>800000012</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="4">
         <v>80</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -698,35 +703,35 @@
         <v>800000034</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="4">
         <v>84</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -734,33 +739,33 @@
         <v>800000155</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="4">
         <v>98</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -768,33 +773,33 @@
         <v>800000188</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" s="4">
         <v>192</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:12">
